--- a/poll/survey.xlsx
+++ b/poll/survey.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="167">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Όχι αλλα θέλω να προσπαθήσω</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω προσπαθήσει, αλλά θα ήθελα να προσπαθήσω να μειώσω την χρήση του λεωφορείου.</t>
+    <t xml:space="preserve">Αποφευγω τη χρήση μέσων για κοντινές αποστάσεις</t>
   </si>
   <si>
     <t xml:space="preserve">Ναι, έχω χρησιμοποιήσει εφαρμογές για γυμναστική.</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Οχι αλλα θέλω</t>
   </si>
   <si>
-    <t xml:space="preserve">Μια τέτοια εφαρμογή θα ήθελα να περιλαμβάνει ειδοποιήσεις έτσι να με παρακινεί, ως χρήστη, να τη χρησιμοποιώ ενεργά.</t>
+    <t xml:space="preserve">Επιβραβευση και παρακινηση </t>
   </si>
   <si>
     <t xml:space="preserve">Την πρόοδο σας σχετικα με τον αν έχετε μειώσει τους ρύπους σας ή οχι κατα την διάρκεια χρήσης της εφαρμογής</t>
@@ -124,18 +124,12 @@
     <t xml:space="preserve">Ναι προσπαθώ όσο μπορώ</t>
   </si>
   <si>
-    <t xml:space="preserve">Είναι σημαντικό να μην μολύνουμε την ατμόσφαιρα γιατί είναι ο αέρας που αναπνέουμε. Αποφευγω τη χρήση αυτοκινήτου για κοντινές αποστάσεις</t>
-  </si>
-  <si>
     <t xml:space="preserve">Χρησιμοποιώ εφαρμογή με προγράμματα γυμναστικής στο σπίτι</t>
   </si>
   <si>
     <t xml:space="preserve">Οχι και δεν θέλω</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κατεβάσει γιατί δεν το θεώρησα σημαντικό να κατεβάσω μια. Μια εφαρμογή που θα κατέβαζα θα μου πρότεινε φιλικότερες προς το περιβάλλον εναλλακτικές των καθημερινών μου συνηθειών, θα κατέγραφε τους ρύπους που παράγω και θα επιβραβευε την πρόοδο μου (σαν παιχνίδι)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να "ποστάρετε" φωτογραφίες με κινήσεις που κάνετε για να μειώσετε το περιβάλλον</t>
   </si>
   <si>
@@ -154,15 +148,12 @@
     <t xml:space="preserve">οχι -  self motivated</t>
   </si>
   <si>
-    <t xml:space="preserve">θα ηθελα να εχει την ποιοτητα αερα στην πολη μου , ποιοτητα νερου κλπ</t>
+    <t xml:space="preserve">Παρακολουθηση ρυπων πολης</t>
   </si>
   <si>
     <t xml:space="preserve">Ειδήσεις σχετικά με το περιβάλλον</t>
   </si>
   <si>
-    <t xml:space="preserve">Χρησιμοποιώ ΜΜΜ ή πηγαινω με τα πόδια για μικρότερες αποστάσεις</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι γυμναστικής και διατροφής </t>
   </si>
   <si>
@@ -172,91 +163,51 @@
     <t xml:space="preserve">Υπήρχε προγραμμα κινητρο κ ενημέρωση </t>
   </si>
   <si>
-    <t xml:space="preserve">Χρησιμοποιώ όσο γίνεται λιγότερο το αυτοκίνητο μου. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Δε χρησιμοποιώ γιατί με όσες έχω προσπαθήσει δεν κατάφεραν να με κερδίσουν.</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κατεβάσει γιατί δεν γνωρίζω κάποια. Θα ήθελα να είναι απλή στην κατανόηση, να με προειδοποιεί σε περιπτώσεις που ξεφεύγει η ρύπανση σε μεγάλα επίπεδα και να μου προτείνει εναλλακτικούς τρόπους μετακίνησης  για τις διαδρομές που θέλω να πραγματοποιήσω</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Χοιρινό, Σοκολάτα, Καφέ</t>
+    <t xml:space="preserve">Φρούτα </t>
   </si>
   <si>
     <t xml:space="preserve">Οχι</t>
   </si>
   <si>
-    <t xml:space="preserve">Πετάω τα σκουπίδια στα ρέματα στο χωριό μου . Την πανέμορφη Αηδόνα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Η γυμναστική είναι για τους αδύναμους</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Για να κατεβάσω μια εφαρμογή σαν αυτή θα ήθελα να την έχει φτιάξει ο Βαγγέλης ο φουφικος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Φρούτα </t>
-  </si>
-  <si>
     <t xml:space="preserve">Θα ήθελα να ενημερωθώ, ώστε να αλλάξω τον τρόπο ζωής μου</t>
   </si>
   <si>
     <t xml:space="preserve">Όχι γιατί κάνω μόνη μου </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν μου έχει κεντρίσει το ενδιαφέρον </t>
-  </si>
-  <si>
     <t xml:space="preserve">Τα παραπάνω </t>
   </si>
   <si>
-    <t xml:space="preserve">Είναι κάτι που έχω στο μυαλό μου . Όταν μπορώ να κάνω κάποια αλλαγή και να μειώσω τους ρύπους θα το κάνω.( Να πάρω ΜΜΜ αν μπορώ ή car pooling) όλα όμως στα πλαίσια που δεν θα χαλάσει το πρόγραμμα μου</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι δεν έχω ασχοληθεί και δεν έχω νιώσει την ανάγκη παρότρυνσης. Κάνω από μόνη μου.</t>
   </si>
   <si>
-    <t xml:space="preserve">Θα ήθελα να έχει μικρούς και εύκολους στόχους στην αρχή, να μπορέσω να κάνω μικρά βήματα βελτίωσης της περιβαλλοντικής μου συμπεριφοράς. Και στην συνέχεια οι στόχοι να γίνονται δυσκολότεροι αλλά και πιο καθοριστικοί.
-Θα ήθελα επίσης να έχει ενδιαφέρουσες πληροφορίες για να αποκτήσω περισσότερες γνώσεις πάνω στο θέμα.</t>
-  </si>
-  <si>
     <t xml:space="preserve">30+</t>
   </si>
   <si>
     <t xml:space="preserve">Τυρί</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω μπει στη διαδικασία</t>
+    <t xml:space="preserve">'Οχι</t>
   </si>
   <si>
     <t xml:space="preserve">Περπάτημα</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω βρεί κάποια</t>
+    <t xml:space="preserve">Όχι δεν έτυχε</t>
   </si>
   <si>
     <t xml:space="preserve">Οχι και δεν θελω να προσπαθησω</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κάποιο ενδιαφέρον</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι!Εφαρμογή για τρέξιμο</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έτυχε</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν ξέρω τι ενέργειες πρέπει να ακολουθήσω σε ατομικό επίπεδο ωστόσο θα ήθελα να ενημερωθώ σχετικά με αυτό.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι λόγω έλλειψης χρόνου</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν γνωρίζω ότι υπάρχουν σχετικές εφαρμογές.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μπορείτε να συνδεθείτε με τους "φίλους" σας</t>
   </si>
   <si>
@@ -266,49 +217,31 @@
     <t xml:space="preserve">Μηχανή</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κάνει </t>
-  </si>
-  <si>
     <t xml:space="preserve">Κάνω τρέξιμο 4 φορές την βδομαδα, και χρησιμοποιώ κάποιες εφαρμογές με ασκήσεις στοωσπιτι</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ήξερα οτι υπάρχει </t>
-  </si>
-  <si>
     <t xml:space="preserve">Χοιρινό, Τυρί, Σοκολάτα</t>
   </si>
   <si>
-    <t xml:space="preserve">Ανακύκλωση, μείωσης χρήσης αυτοκινήτου (έμφαση στο περπάτημα)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν έχω χρειαστεί έως τώρα τέτοιες εφαρμογές για κίνητρα </t>
   </si>
   <si>
-    <t xml:space="preserve">Όχι δεν το έχω ψάξει </t>
-  </si>
-  <si>
     <t xml:space="preserve">Τυρί, Σοκολάτα, Καφέ</t>
   </si>
   <si>
-    <t xml:space="preserve">Λιγότερη χρήση μέσων μεταφορας</t>
-  </si>
-  <si>
     <t xml:space="preserve">Χρησιμοποιώ μόνο εφαρμογές γυμναστικης</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κατεβάσει, η αληθεια είναι δνε το είχα σκεφτεί νωρίτερα ούτε έχω δει ποτέ κάποια σχετική με το περιβαλλον</t>
-  </si>
-  <si>
     <t xml:space="preserve">Περιπου</t>
   </si>
   <si>
-    <t xml:space="preserve">Θέλω πολύ να συμμετάσχω σε ομάδες δενδροφύτεψης και να ξεκινήσω εντατική ανακύκλωση. Ήδη άρχισα να μαζεύω καπάκια από μπουκάλια. Όταν ψωνίζω λαχανικά προσπαθώ να χρησιμοποιώ χάρτινες σακούλες.</t>
+    <t xml:space="preserve">Ανακυκλωση</t>
   </si>
   <si>
     <t xml:space="preserve">Όχι, δεν βρήκα την ευκαιρία.</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ξέρω ακριβώς αν ένα app στο κινητό θα βοηθούσε ιδιαίτερα.</t>
+    <t xml:space="preserve">Δεν έχω βρει κάποια αξιόπιστη</t>
   </si>
   <si>
     <t xml:space="preserve">Παρακολούθηση των ρύπων σας</t>
@@ -320,49 +253,24 @@
     <t xml:space="preserve">Τυρί, Καφέ</t>
   </si>
   <si>
-    <t xml:space="preserve">Αλλαγη ηλεκτρικων λαμπτηρων με λεντ, χρηση μετρο, χρηση υφασματινων πετσετων αντι για χαρτινων </t>
-  </si>
-  <si>
     <t xml:space="preserve">Οχι , δεν τις θεωρω αξιοπιστεςς</t>
   </si>
   <si>
-    <t xml:space="preserve">Οχι αλλα θέλω, Οχι και δεν θέλω</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν τις θεωρω αξιοπιστες</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Χορτοφαγική διατροφή,όσο είναι δυνατόν αγορά τοπικών προϊόντων, περπάτημα και αποφυγή μέσων μεταφοράς, μποϊκοτάζ σε fast fashion εταιρίες </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pinterest μόνο για έμπνευση και ιδέες</t>
   </si>
   <si>
-    <t xml:space="preserve">Δε γνωρίζω κάποια</t>
-  </si>
-  <si>
     <t xml:space="preserve">Χρήματα για το περιβάλλον</t>
   </si>
   <si>
-    <t xml:space="preserve">ΑΠΟΦΥΓΗ ΧΡΗΣΗΣ ΑΥΤΟΚΙΝΗΤΟΥ, ΑΓΟΡΑ ΠΡΟΙΟΝΤΩΝ ΑΠΟ ΤΟΠΙΚΟΥΣ ΠΑΡΑΓΩΓΟΥΣ
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ΝΑΙ, ΓΥΜΝΑΣΤΙΚΗΣ</t>
   </si>
   <si>
-    <t xml:space="preserve">ΔΕΝ ΒΡΙΣΚΩ ΤΗ ΧΡΗΣΙΜΟΤΗΤΑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Προσπαθώ να επαναχρησιμοποιω πράγματα, να χρησιμοποιώ μέσα μεταφοράς, να μειώσω το φαγητό και να μετατρέψω τη διατροφή μου σε πιο χορτοφαγικη</t>
+    <t xml:space="preserve">να μετατρέψω τη διατροφή μου σε πιο χορτοφαγικη</t>
   </si>
   <si>
     <t xml:space="preserve">Χρησιμοποιούσα αλλά πλέον για τους περισσότερους τομείς της ζωής μου αισθάνομαι πως έχω βρει τα σωστά, εσωτερικά κίνητρα... Καμία φορά, νιώθω πως αυτές οι εφαρμογές δρουν αρνητικα στην ψυχοσύνθεση μου καθώς μου δίνουν την αίσθηση πως μετατρέπω την καθημερινότητα μου σε μια μηχανική διαδικασία... Ειδικά, όταν σε παροτρύνουν να καθορίσεις συγκεκριμένες ώρες που θα κάνεις τα πράγματα που θες, έχω την αίσθηση πως δεν σε αφήνουν περιθώρια για αυθορμητη, πηγαία έμπνευση να κάνεις τα πράγματα την κατάλληλη στιγμή, που τα νιώθεις περισσότερο. </t>
   </si>
   <si>
-    <t xml:space="preserve">Μια εφαρμογή, ωστόσο, για το περιβάλλον θα ήταν χρήσιμη για εμενα γτ θεωρώ πως δεν έχω αποκτήσει αρκετές χρήσιμες πληροφορίες για να με κινητοποιησουν... Για εμένα θα ήταν ωφέλιμο να είναι μια πηγή πληροφοριών σχετικά με τις επιπτώσεις καθημερινών συμπεριφορών αλλά και μαζικών συμπεριφορών πχ fast fashion... Θα ήθελα να μου παρέχει προτάσεις για την αντίκατασταση επιβλαβών με φιλικών φιλικών προς το περιβάλλον πραγμάτων... Δεν θα ήθελα προσωπικά να είναι μια εφαρμογή "βαθμολόγησης" του πόσο καλά τα πάω, είμαι γενικά κατά της συνεχούς αξιολόγησης και τόσο προσεκτικής ανάλυσης κάθε καθημερινής συμπεριφοράς μας... Θα ήθελα απλώς να μου δίνει πληροφορίες και έμπνευση για το μέλλον.... </t>
-  </si>
-  <si>
     <t xml:space="preserve">Θέλω να μειώσω τους ρύπους</t>
   </si>
   <si>
@@ -375,84 +283,39 @@
     <t xml:space="preserve">Χοιρινό, Τυρί</t>
   </si>
   <si>
-    <t xml:space="preserve">Προσπαθώ να πηγαίνω περισσότερες φορές με τα πόδια από ένα μέρος στο άλλο όταν μένω στο πατρικό μου σπίτι </t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι γιατί έχω από μόνη μου το κίνητρο  να κάνω γυμναστική, να προσέχω την διατροφή μου και να διαβάζω. Έχω κίνητρο να ακολουθώ τους στόχους μου γιατί μέσω της επίτευξης τους εξελίσσομαι ως άνθρωπος. </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κατεβάσει μια τέτοια εφαρμογή γιατί δεν το έχω σκεφτεί ποτε να το κάνω. Θα ήταν χρησιμο μια τέτοια εφαρμογή να μπορεί να καταγράφει τις δραστηριότητες μας που συμβάλλουν στην ατμοσφαιρική ρύπανση και να μετράει στο περίπου ποσο διοξείδιο του άνθρακα παράγεται από εμάς (κατά μέσο όρο, σε ποσοστό). Έτσι, θα μπορούσαμε να μειώσουμε κατά πολύ ή να αντικαταστήσουμε τις δραστηριότητες μας με άλλες που είναι πιο φιλικές προς το περιβάλλον.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ανακυκλωση</t>
-  </si>
-  <si>
     <t xml:space="preserve">Οχι, γυμναζομαι ουτως ή αλλως</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν γνωριζα οτι υπαρχουν.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν με αφορά </t>
+    <t xml:space="preserve">Όχι, δεν θα κατέβαζα</t>
   </si>
   <si>
     <t xml:space="preserve">Δεν με ενδιαφέρει </t>
   </si>
   <si>
-    <t xml:space="preserve">Χρησιμοποίησα ποδήλατο</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, μπορώ να γυμναστώ μόνος μου!!</t>
   </si>
   <si>
-    <t xml:space="preserve">Όχι, δεν θέλω!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μεσα συγκοινωνίας</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι αλλα την διέγραψα</t>
   </si>
   <si>
     <t xml:space="preserve">Δεν ασχολούνταν οι σχεδιαστέςαζι της και ειχε μείνει πισω στα γεγονότα </t>
   </si>
   <si>
-    <t xml:space="preserve">Χρησιμοποιώ περισσότερο το ποδήλατο και ελαττώνω τη χρήση απο άλλα μέσα μεταφοράς </t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι γιατί παροτρύνομαι χωρίς αυτα</t>
   </si>
   <si>
-    <t xml:space="preserve">Όχι γιατί δεν το έχω σκεφτει</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Χρησιμοποιώ πολύ τα πόδια για κοντινές αποστάσεις, ενώ φροντίζω όποτε απαιτείται αυτοκίνητο για υποχρεώσεις, ψώνια, κλπ., να τα φροντίζω όλα μαζί μια φορά την ημέρα, για να μην γίνονται άσκοπες κι επιπλέον ρυπογόνες μετακινήσεις.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Εφαρμογές, apps δηλαδή, όχι, γιατί δεν κρίνω πως χρειάζομαι κάποια καθοδήγηση για να πεισθώ να αθληθώ ή να σεβαστώ το περιβάλλον. Μπορώ με δική μου πρωτοβουλία να εκτιμήσω.</t>
   </si>
   <si>
-    <t xml:space="preserve">Πιστεύω πως διαθέτω ένα γνωστικό επίπεδο για να "αυτοπαροτρυνθώ" και δεν προτιμώ τις εφαρμογές γενικώς, καθώς ορισμένες στηρίζονται οικονομικά στην επιβεβλημένη διαφήμιση.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Κοτόπουλο</t>
   </si>
   <si>
-    <t xml:space="preserve">Προσπαθώ να κάνω οικονομία στην ενέργεια γενικότερα.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, βαριέμαι.</t>
   </si>
   <si>
-    <t xml:space="preserve">Όχι, δεν το είχα σκεφτεί ποτέ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Να έχει ωραία γραφικά</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oχι</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι εφαρμογές σε κινητό </t>
   </si>
   <si>
@@ -465,227 +328,105 @@
     <t xml:space="preserve">Όχι, γιατί είναι ασήμαντο </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν θέλω να κατεβάσω τέτοια εφαρμογή γιατί βαριέμαι να ασχοληθώ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Προσπαθώ να μειώσω τη χρήση του αυτοκινήτου</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν έχω βρει κάποια καλή</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ξέρω κάποια τέτοια εφαρμογή</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ανακύκλωση </t>
   </si>
   <si>
     <t xml:space="preserve">Όχι </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν μου είναι απαραίτητο </t>
-  </si>
-  <si>
     <t xml:space="preserve">Χοιρινό, Καφέ, Κοτόπουλο</t>
   </si>
   <si>
-    <t xml:space="preserve">Καταναλώνω προϊόντα βιομηχανιών που η παραγωγή του είναι ρυπογόνα.
-Δεν έχω αυτοκίνητο αλλά θα αποκτήσω σύντομα, όμως σκοπεύω να το χρησιμοποιώ μόνο όταν είναι ανάγκη και μέσα στην πόλη να προτιμώ ακόμα το ποδήλατο.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι , για γυμναστική και για εκμάθηση ξένων γλωσσών.</t>
   </si>
   <si>
-    <t xml:space="preserve">Δε γνώριζα ότι υπάρχουν αντίστοιχες εφαρμογές αλλά θα ψάξω. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θελω να προσπαθησω </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι γυμναζομαι οταν εχω ορεξη</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ετυχε</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν έτυχε να ψάξω το πως </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι για γυμναστική </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έτυχε να το ψάξω,να είναι απλή κατανοητή και διαδραστική </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mοσχαρίσιο Κρέας, Χοιρινό, Σοκολάτα</t>
   </si>
   <si>
     <t xml:space="preserve">Περίπου</t>
   </si>
   <si>
-    <t xml:space="preserve">Γενικά προσπαθώ να υιοθετήσω μια οικολογική συμπεριφορά. Για παράδειγμα, προσπαθώ να περπατάω αντί να χρησιμοποιώ κάποιο μμμ.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Δε χρειάστηκε. Θα το έκανα μόνον για πολύ απαραίτητα πράγματα πχ μια ψυχοθεραπεία διαδικτυακή, αλλά σε κάτι διαφορετικό πχ γυμναστική δεν πιστεύω πως έχει αποτέλεσμα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν γνώριζα πως υπάρχουν, θα μπω να τις δω </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δε γνώριζα πως υπάρχει. Θα θέλε ίσως να μετράει ποσά μπουκάλια πλαστικά έχω ανακυκλώσει, τι ρύπους παράγω με μια μετακίνηση, κλπ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Προσπαθω να τρωω λιγότερο κρεας και γάλα, ωστε να μην ενισχυω τις αντιστοιχες βιομηχανίες, οι οποίες ειναι υπεύθυνες για μεγαλο μερος της ρύπανσης του πλανήτη μας. Επισης κανω ανακύκλωση και προσπαθώ οσο μπορώ να μιλαω και σε αλλους για την αναγκη δραστηριοποιησης πανω στο συγκεκριμένο θεμα και στην κλιματική αλλαγή γενικότερα.</t>
+    <t xml:space="preserve">Θα προσπαθούσα μέσα από μια συλλογική προσπάθεια</t>
   </si>
   <si>
     <t xml:space="preserve">Οχι. Κάνω μόνη μου ούτως ή αλλως γυμναστική </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν το ειχα σκεφτεί ποτέ. Αν υπήρχε τετοια εφαρμογή θα ηθελα να εχει οδηγιες για το πώς μπορω μεσα απο την καθημερινότητά μου να μειωσω τον δικο μουαντίκτυπο στην ρυπανση του πλανητη (πχ ποια ρουχα να αποφεύγω να αγοραζω, ποια απορρυπαντικα ειναι πιο καλα για το περιβάλλον, ποιες συσκευές να χρησιμοποιω λιγότερο, πως να κανω σωστα ανακύκλωση, και πώς να μειωσω το κρεας και τα γαλακτοκομικά με σωστο τρόπο για την υγεια μ, δηλαδη πχ να έχει καποιον οδηγο για υπεύθυνη plant-based διατροφή)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ολα τα παραπανω + οδηγο για το πως να υιοθετησουμε μια plant-based διατροφη χωρις να θεσουμε σε κινδυνο την υγεια μας</t>
   </si>
   <si>
     <t xml:space="preserve">Mοσχαρίσιο Κρέας</t>
   </si>
   <si>
-    <t xml:space="preserve">Είναι κυρίως εγωιστικό. Δεν γίνεται τόσες δεκαετίες να άφηνες τις αυτοκινητοβιομηχανίες και τα εργοστάσια να αλωνιζουν και ξαφνικά να θες να επιβάλλεις στον κόσμο να πάει σε πράσινη ενέργεια </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι για συγκέντρωση στο διάβασμα (τεχνική pomodoro )</t>
   </si>
   <si>
-    <t xml:space="preserve">Γιατί χρησιμοποιώ το πολύ 5 εφαρμογές. Δεν αντέχω πλέον τον πλουραλισμό στις εφαρμογές. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αποφεύγω την χρήση αυτοκινήτου</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι δεν χρησιμοποιώ , διότι έχω κίνητρο και αθλούμαι χρόνια</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecosia είναι browser με την χρήση του οποίου χρηματοδοτείται δεντροφύτευση. Σταμάτησα να την χρησιμοποιώ διότι ήταν αργό.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Προσπαθώ να χρησιμοποιώ όσο το δυνατόν λιγότερο το λεωφορείο και γενικότερα τα μέσα μεταφοράς.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι! Κυρίως εφαρμογές για γυμναστική !</t>
   </si>
   <si>
-    <t xml:space="preserve">Δε γνώριζα ότι υπάρχουν! Σίγουρα θα ήθελα να περιλαμβάνει πληροφορίες για τις επιπτώσεις των πράξεων μας όσον αφορά το περιβάλλον, ώστε να με παρακινεί να μην τις κάνω!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Πάω παντού με τα πόδια</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θεωρώ πως δεν χρειάζομαι εφαρμογή για να κάνω αυτά που πρέπει να κάνω</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αβγ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι γιατι δε θα θεωρώ αξιόπιστα </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έτυχε να την κατεβάσω. Θα ηθελα να έχει άμεσες μετρήσεις CO2 liveatreaming κάθε πόλης </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mοσχαρίσιο Κρέας, Τυρί</t>
   </si>
   <si>
-    <t xml:space="preserve">θεωρω δυσκολο το να επιδεινωθει τοσο αμεσα και εντονα η κατασταση στον πλανητη ωστε να επηρεαστει σημαντικα η υγεια μου, μια τοσο μεγαλη επιδεινωση θα παρει περισσοτερα χρονια απο οσο πιθανον θα ζησω</t>
-  </si>
-  <si>
     <t xml:space="preserve">ναι καταγραφω τις καλες και κακες συνηθειες προσπαθωντας να βελτιωσω την καθημερινη μου ρουτινα</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecosia: εχω την αισθηση οτι βοηθαω χωρις να κανω κατι δυσκολο, απλα καν ο,τι θα εκανα και σε ενα αλλο browser, κακο σα σκεπτικο κατ εμε, ισως κρυβει τον κινδυνο να βολευτεις σε αυτο και να μην κανεις καποια δικια σου προσπαθεια για το περιβαλλον</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oχι
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Χρησιμοποιηω, χωρίς ωστόσο ιδιαίτερη συνεοεια</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω προσπαθήσει</t>
-  </si>
-  <si>
     <t xml:space="preserve">Χοιρινό, Τυρί, Καφέ, Κοτόπουλο</t>
   </si>
   <si>
-    <t xml:space="preserve">Θα κάνω στο μέλλον</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι. Κυρίως για διατροφή</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ενδιαφέρθηκα τόσο</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ζυμαρικά</t>
   </si>
   <si>
     <t xml:space="preserve">Οχι βαριέμαι</t>
   </si>
   <si>
-    <t xml:space="preserve">Ανακυκλωνω και μειωνω το αντικτυπο μου στο πλανητη</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι γιογκα</t>
   </si>
   <si>
-    <t xml:space="preserve">Πραγματικες μετρησεις των ρυπων μου</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι αλλα τα παράτησα</t>
   </si>
   <si>
-    <t xml:space="preserve">Για αρκετο χρονικο διαστημα πηγαινα στη δουλεια και τις καθημερινες μου υποχρεωσεις και ασχολιες με τα ποδια κυριως, ενω δεν ηταν λιγες οι φορες που προτιμησα το ποδηλατο.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Οχι </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν εχω κατεβασει καποια, διοτι εως τωρα δε γνωριζα την υπαρξη τους. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Έβαλα ηλιακό θερμοσίφωνα στο σπίτι μου για τη χρήση ζεστού νερού </t>
   </si>
   <si>
     <t xml:space="preserve">Έχω πάρει "έξυπνη" ζυγαριά που αναλύει την σύσταση του σώματος με σκοπό να φτάσω στο επιθυμητό ποσοστό λίπους κι μυών μέσω γυμναστικής και διατροφής </t>
   </si>
   <si>
-    <t xml:space="preserve">Θα ήθελα να έχει εβδομαδιαία challenges για ένα πιο eco τρόπο ζωής </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν με είχε προβληματίσει ιδιαίτερα το συγκεκριμένο ζήτημα αλλά μετά το παρόν ερωτηματολόγιο θα ήθελα να προσπαθήσω.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Έχει τύχει να χρησιμοποιήσω εφαρμογή αυτοβελτιωσης για την διακοπή καπνίσματος.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ειδήσεις σχετικά με το περιβάλλον και τρόπους/κίνητρα για την μείωση των ρύπων. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θέλω να προσπαθήσω αλλά δεν έχει τύχει να ακούσω για κάποιο τρόπο</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι βίντεο στο YouTube κυρίως ψυχικής υγείας</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ξέρω ποια να κατεβάσω</t>
-  </si>
-  <si>
     <t xml:space="preserve">Δεν ετυχε.</t>
   </si>
   <si>
-    <t xml:space="preserve">Μείωση χρήσης </t>
-  </si>
-  <si>
     <t xml:space="preserve">γυμναστήριο και περπάτημα </t>
   </si>
   <si>
@@ -701,45 +442,18 @@
     <t xml:space="preserve">Οχι δεν έχω κάποια τέτοια εφαρμογή, προσπαθώ να παρότρυνω τον εαυτό μου εγώ και οι γύρω μου </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κατεβάσει, νιώθω πως δεν την χρειάστηκα ακόμα. Νομίζω πως παροτρυνοναι από την προσωπική μου ευαισθητοποιηση για το περιβάλλον. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Όχι αλλά θα ηθελα</t>
-  </si>
-  <si>
     <t xml:space="preserve">Γυμνάζομαι καθημερινά </t>
   </si>
   <si>
-    <t xml:space="preserve">Όχι αλλά θα ήθελα </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Χρήση λεωφορείου, χρήση ανακυκλώσιμα υλικά όπως χαρτί αντί για πλαστική συσκευασία τυριού κλπ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι. πχ γυμναστική, novoville κλπ</t>
   </si>
   <si>
-    <t xml:space="preserve">Ενθαρρυντική και εξυπηρετική για τους σκοπούς της</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Με ενδιαφέρει το μέλλον του πλανήτη</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν έχω αισθανθεί την ανάγκη</t>
   </si>
   <si>
-    <t xml:space="preserve">Γιατί προτιμώ να πάρω την πρωτοβουλία να ψάξω στο ίντερνετ μόνη μου και να μάθω. Θα έπρεπε να έχει κάτι πολύ καινοτόμο που να μου κεντρίσει το ενδιαφέρον για να κατεβάσω κάτι τέτοιο.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν παιρνω το αυτοκινητο μου σε μικρες αποστασεις,δεν παραγγελνω ντελιβερι , αγοραζω σεκοντ χαντ ρουχα, δεν τρωω κρεας χρησιμοποιω καθε ειδους επαναχρησιμοποιουμενο αντικείμενο  κτλ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι εχω εφαρμογη για να μου θυμίζει να πινω νερο αλλα ειναι εκνευριστικη</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ηταν λεοτουργικη υπαρχουν παρα πολλοι παραμετροι που κατα τη γνωμη μου ειναι δυσκολο να χωρεσουν σε μια εφαρμογη για να εξαγουν το σωστο αποτελεσμα</t>
-  </si>
-  <si>
     <t xml:space="preserve">Χοιρινό, Τυρί, Σοκολάτα, Καφέ</t>
   </si>
   <si>
@@ -749,82 +463,36 @@
     <t xml:space="preserve">οχι</t>
   </si>
   <si>
-    <t xml:space="preserve">Οχι γιατι το μεγαλυτερο μερος των ρυπων προερχεται απο τα πλοια... συγκεκριμενα τα 8 μεγαλυτερα πλοια στον κοσμο παραγουν μεγαλυτερη ποσοτητα CO2 απο οτι ΟΛΑ τα αυτοκινητα της Ευρωπης, αρα αλλου πρεπει να εστιασετε αν θελετε να κανετε το περιβαλλον καλυτερο, απο την αλλη αν απλα θελετε να βγαλετε εφαρμογη για να βγαλετε λεφτα πολυ καλα κανετε :)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Περπατάω ή χρησιμοποιώ τα μέσα μεταφοράς</t>
   </si>
   <si>
     <t xml:space="preserve">Ναι εφαρμογές στο κινητό</t>
   </si>
   <si>
-    <t xml:space="preserve">Ναι αλλα την διέγραψα, Επίσης χρησιμοποιώ το Ecosia στον υπολογιστή μου</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Στο Ecosia μου αρέσει που η κάθε αναζήτησή μου στο ίντερνετ βοηθάει στο να φυτευτούν δέντρα.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Σοκολάτα</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ξερω πώς </t>
-  </si>
-  <si>
     <t xml:space="preserve">Οχι δν τις θεωρω απαραίτητες </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν το εχω σκεφτεί </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κτηνοτροφία βιολογικής εκτροφής και ελεύθερης βόσκησης με αρκετά χαμηλό αποτύπωμα άνθρακα. 
-Χρησιμοποιώ το αυτοκίνητο μόνο για θέματα εργασίας όπου και απαιτείται. (Βρίσκομαι στην επαρχία-έλλειψη συγκοινωνίας)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν μου έχει χρειαστεί ως τώρα. </t>
   </si>
   <si>
-    <t xml:space="preserve">Θα χρησιμοποιούσα μια εφαρμογή που να σχετίζεται και με την δουλειά μου. Ίσως κάποιος υπολογισμός ρύπων από την μονάδα μου ή κάτι αντίστοιχο. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μείωση κατανάλωσης κρέατος.
-Ανακύκλωση 
-Ελάχιστη κίνηση με αυτοκίνητο </t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν είδα αποτέλεσμα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Δε γνώριζα την ύπαρξη τους.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mοσχαρίσιο Κρέας, Χοιρινό, Τυρί, Καφέ</t>
   </si>
   <si>
     <t xml:space="preserve">Ανακύκλωση</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω βρει κάποια αξιόπιστη</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αποφεύγω να χρησιμοποιώ μέσα μεταφοράς που παράγουν CO2 και έχω μειώσει την κατανάλωση κρέατος.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν μου έχει χρειαστεί.</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω κατεβάσει γιατί βρίσκω τις πληροφορίες που θέλω στο ίντερνετ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν σπαταλώ άσκοπα ηλεκτρική ενέργεια πχ (αφήνω φώτα ανοιχτά) 
-Προσπαθώ να αγοράζω οικολογικά προϊόντα. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι, εφαρμογή υπενθύμισης για να πίνω νερό, εφαρμογή  καταγραφής επιδόσεων κατά την γυμναστική. </t>
   </si>
   <si>
-    <t xml:space="preserve">Γιατί δεν έχω εντοπίσει κάποια ενδιαφέρον εφαρμογή ακόμα. Θα ήθελα να γράφει πόσο co2 η αλλά επιβλαβή αέρια απελευθερωνονται κατά την παραγωγή προϊόντων που χρησιμοποιούμε και καταναλώνουμαι καθημερινά. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Όλα τα παραπάνω εκτός το τελευταίο </t>
   </si>
   <si>
@@ -834,61 +502,25 @@
     <t xml:space="preserve">Ναι έχω ειδικό ρολόι. </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν ήξερα ότι υπήρχαν </t>
-  </si>
-  <si>
     <t xml:space="preserve">Διαφορά Βιβλία του συγκεκριμένου αντικείμενου. </t>
   </si>
   <si>
-    <t xml:space="preserve">Να ξέρω ότι τα στοιχεία είναι όλα ακριβή και αληθή. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θα προσπαθούσα μέσα από μια συλλογική προσπάθεια</t>
-  </si>
-  <si>
     <t xml:space="preserve">Όχι, δεν μου παρέχουν κατι</t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν έχω ασχοληθεί με την αναζήτηση μιας τέτοιας εφαρμογής. Θα ήθελα να εμφανίζει στον χρήστη άμεσα τον θετικό αντίκτυπο κάθε ενέργειας του, που είναι φιλική προς το περιβάλλον</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Να χρησιμοποιώ εναλλακτικές μεταφορας</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι χρησιμοποιώ εφαρμογές  αυτοβελτιωσης για μια πιο ισορροπημένη ζωή δε διάφορους τομείς όπως διατροφή γυμναστικη ψυχολογία </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν είχα ιδέα ότι υπήρχαν </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Άγνοια με τον τρόπο μείωσης των ρύπων</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι, γυμναστική, μαγειρική </t>
   </si>
   <si>
-    <t xml:space="preserve">Γιατί δεν ήξερα ότι υπάρχουν αντίστοιχες εφαρμογές</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν το έψαξα ποτέ. Δεν μου δόθηκε ποτέ η ευκαιρία. Δεν χρησιμοποιώ τα μέσα πολλές φορές. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναι. Κυρίως για να πινω νερό και διατροφής </t>
   </si>
   <si>
-    <t xml:space="preserve">Δεν εχω δει τέτοια εφαρμογή ίσως δεν το έχω ψάξει. δεν καταλαβαίνω πως θα μας βοηθούσε. Ή πως θα μας συμβουλευε να κανουμε για να βοηθήσουμε το περιβάλλον </t>
-  </si>
-  <si>
     <t xml:space="preserve">Να μας προτρέπει να κανουμε πράξεις για να βοηθηθούμε </t>
   </si>
   <si>
     <t xml:space="preserve">Mοσχαρίσιο Κρέας, Καφέ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Όχι άλλα θέλω να προσπαθήσω</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Όχι δεν έτυχε</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +662,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M62" activeCellId="0" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1048,8 +680,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="42.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="44.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="255"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="44.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="81.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="158.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="86.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="269.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="139.29"/>
@@ -1108,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>44168.5854527315</v>
       </c>
@@ -1190,22 +822,22 @@
         <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>4</v>
@@ -1225,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
@@ -1240,22 +872,22 @@
         <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,16 +922,16 @@
         <v>33</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>27</v>
@@ -1316,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>5</v>
@@ -1325,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>2</v>
@@ -1340,16 +972,16 @@
         <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>27</v>
@@ -1358,65 +990,65 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44168.6107416319</v>
+        <v>44168.6159513542</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44168.6159513542</v>
+        <v>44168.6193570718</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>5</v>
@@ -1428,45 +1060,45 @@
         <v>19</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>44168.6200089931</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>44168.6193570718</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>5</v>
@@ -1478,31 +1110,31 @@
         <v>19</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>65</v>
+      <c r="N9" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>30</v>
@@ -1510,99 +1142,99 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44168.6200089931</v>
+        <v>44168.6203905324</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>44168.624928831</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>44168.6203905324</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>30</v>
@@ -1610,13 +1242,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>44168.624928831</v>
+        <v>44168.6250341319</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>5</v>
@@ -1625,107 +1257,107 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>44168.6250341319</v>
+        <v>44168.6264071759</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D13" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>44168.6264071759</v>
+        <v>44168.6311017593</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>2</v>
@@ -1734,142 +1366,142 @@
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>44168.6311017593</v>
+        <v>44168.6323632176</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>44168.6323632176</v>
+        <v>44168.6329293171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>44168.6329293171</v>
+        <v>44168.643869213</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
@@ -1883,49 +1515,49 @@
       <c r="H17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>44168.643869213</v>
+        <v>44168.6446474769</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>1</v>
@@ -1934,54 +1566,54 @@
         <v>20</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>103</v>
+      <c r="K18" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>44168.6446474769</v>
+        <v>44168.6459153125</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>32</v>
@@ -1989,93 +1621,93 @@
       <c r="J19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>107</v>
+      <c r="K19" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>44168.6459153125</v>
+        <v>44168.646842037</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>44168.646842037</v>
+        <v>44168.6474803356</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>1</v>
@@ -2084,48 +1716,48 @@
         <v>20</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>44168.6474803356</v>
+        <v>44168.6495031597</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>1</v>
@@ -2137,72 +1769,72 @@
         <v>32</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>44168.6495031597</v>
+        <v>44168.6504434954</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>28</v>
@@ -2210,113 +1842,113 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>44168.6504434954</v>
+        <v>44168.6510206713</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>44168.6510206713</v>
+        <v>44168.652021632</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>44168.652021632</v>
+        <v>44168.6525315278</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>5</v>
@@ -2325,113 +1957,113 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>44168.6525315278</v>
+        <v>44168.6535621644</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>44168.6535621644</v>
+        <v>44168.6576293866</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>21</v>
@@ -2440,133 +2072,133 @@
         <v>33</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>44168.6576293866</v>
+        <v>44168.6627475463</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>44168.6627475463</v>
+        <v>44168.6681816551</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>44168.6681816551</v>
+        <v>44168.6700964583</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>5</v>
@@ -2575,45 +2207,45 @@
         <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>44168.6700964583</v>
+        <v>44168.6722612384</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
@@ -2625,60 +2257,60 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>44168.6722612384</v>
+        <v>44168.7081424421</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>20</v>
@@ -2687,36 +2319,36 @@
         <v>18</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>151</v>
+        <v>22</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>44168.7081424421</v>
+        <v>44168.7120436574</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>3</v>
@@ -2725,34 +2357,34 @@
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>155</v>
+      <c r="K34" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>30</v>
@@ -2760,19 +2392,19 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>44168.7120436574</v>
+        <v>44168.7284149074</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>19</v>
@@ -2781,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>21</v>
@@ -2790,230 +2422,230 @@
         <v>22</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>44168.7284149074</v>
+        <v>44168.7371872685</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>44168.7371872685</v>
+        <v>44168.7595021875</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>44168.7595021875</v>
+        <v>44168.7685759375</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>44168.7685759375</v>
+        <v>44168.7704023611</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>44168.7704023611</v>
+        <v>44168.7784608102</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -3025,7 +2657,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>1</v>
@@ -3040,16 +2672,16 @@
         <v>33</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>27</v>
@@ -3060,10 +2692,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>44168.7784608102</v>
+        <v>44168.7835629167</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -3090,27 +2722,24 @@
         <v>33</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>44168.7835629167</v>
+        <v>44168.7861444213</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>16</v>
@@ -3125,101 +2754,104 @@
         <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>185</v>
+        <v>99</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>44168.7861444213</v>
+        <v>44168.7887978125</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>44168.7887978125</v>
+        <v>44168.7903652315</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>31</v>
@@ -3227,43 +2859,43 @@
       <c r="G44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>165</v>
+      <c r="H44" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>190</v>
+      <c r="K44" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>44168.7903652315</v>
+        <v>44168.7939658681</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>5</v>
@@ -3272,13 +2904,13 @@
         <v>30</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>32</v>
@@ -3286,117 +2918,117 @@
       <c r="J45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>193</v>
+      <c r="K45" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
-        <v>44168.7939658681</v>
+        <v>44168.7996784491</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>44168.7996784491</v>
+        <v>44168.8001393287</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>27</v>
@@ -3407,46 +3039,46 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>44168.8001393287</v>
+        <v>44168.8219625116</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>27</v>
@@ -3457,13 +3089,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>44168.8219625116</v>
+        <v>44168.8241890509</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>5</v>
@@ -3472,31 +3104,31 @@
         <v>30</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>27</v>
@@ -3507,13 +3139,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>44168.8241890509</v>
+        <v>44168.8452698611</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>5</v>
@@ -3522,48 +3154,48 @@
         <v>30</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>44168.8452698611</v>
+        <v>44168.849776956</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>5</v>
@@ -3572,110 +3204,110 @@
         <v>30</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>44168.849776956</v>
+        <v>44168.8539098495</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>44168.8539098495</v>
+        <v>44168.8766905671</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>20</v>
@@ -3684,69 +3316,69 @@
         <v>32</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>44168.8766905671</v>
+        <v>44168.8767845255</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>219</v>
+        <v>22</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>27</v>
@@ -3755,9 +3387,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>44168.8767845255</v>
+        <v>44168.8905430671</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>16</v>
@@ -3772,42 +3404,42 @@
         <v>30</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>44168.8905430671</v>
+        <v>44168.8915514931</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>16</v>
@@ -3828,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>32</v>
@@ -3837,16 +3469,16 @@
         <v>33</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>27</v>
@@ -3857,7 +3489,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>44168.8915514931</v>
+        <v>44168.8993195139</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>16</v>
@@ -3872,48 +3504,48 @@
         <v>30</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>44168.8993195139</v>
+        <v>44168.8997139005</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>5</v>
@@ -3922,98 +3554,98 @@
         <v>30</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>44168.8997139005</v>
+        <v>44168.927976331</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>44168.927976331</v>
+        <v>44168.9729097106</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>5</v>
@@ -4022,98 +3654,95 @@
         <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>44168.9729097106</v>
+        <v>44168.9787284491</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J61" s="3" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>44168.9787284491</v>
+        <v>44168.9909318634</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>5</v>
@@ -4122,157 +3751,160 @@
         <v>30</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M62" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N62" s="3" t="s">
-        <v>241</v>
+        <v>73</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>44168.9909318634</v>
+        <v>44169.0157068866</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>244</v>
+        <v>150</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>44169.0157068866</v>
+        <v>44169.4351066204</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>247</v>
+        <v>33</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>44169.4351066204</v>
+        <v>44169.4674143982</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>20</v>
@@ -4284,166 +3916,166 @@
         <v>33</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>44169.4674143982</v>
+        <v>44169.5075531713</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>253</v>
+      <c r="K66" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>44169.5075531713</v>
+        <v>44169.520859919</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G67" s="3" t="n">
         <v>4</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>44169.520859919</v>
+        <v>44169.549512963</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>27</v>
@@ -4452,112 +4084,112 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
-        <v>44169.549512963</v>
+        <v>44169.6087113426</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>259</v>
+      <c r="K69" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
-        <v>44169.6087113426</v>
+        <v>44169.6641703819</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>262</v>
+      <c r="K70" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>44169.6641703819</v>
+        <v>44169.7060974074</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -4569,48 +4201,48 @@
         <v>30</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G71" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>44169.7060974074</v>
+        <v>44169.7953309722</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>5</v>
@@ -4619,48 +4251,48 @@
         <v>30</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G72" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
-        <v>44169.7953309722</v>
+        <v>44169.8478966898</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>5</v>
@@ -4669,42 +4301,42 @@
         <v>30</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G73" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
-        <v>44169.8478966898</v>
+        <v>44169.8495293634</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>16</v>
@@ -4725,36 +4357,36 @@
         <v>1</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>44169.8495293634</v>
+        <v>44169.8499664699</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>16</v>
@@ -4775,51 +4407,51 @@
         <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
-        <v>44169.8499664699</v>
+        <v>44170.1438877546</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G76" s="3" t="n">
         <v>1</v>
@@ -4834,74 +4466,25 @@
         <v>22</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
-        <v>44170.1438877546</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D77" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P77" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
